--- a/signals_2025-07.xlsx
+++ b/signals_2025-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,21 +487,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-14 21:49:06</t>
+          <t>2025-07-16 18:26:06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TRUMP/USDT</t>
+          <t>HBAR/USDT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>6h</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,33 +510,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.390000000000001</v>
+        <v>0.24026</v>
       </c>
       <c r="G2" t="n">
-        <v>9.162857142857144</v>
+        <v>0.2167157142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>9.844285714285714</v>
+        <v>0.2638042857142857</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aktif</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-07-17 21:44:06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-14 21:49:29</t>
+          <t>2025-07-16 19:15:34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TRUMP/USDT</t>
+          <t>ENA/USDT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,32 +550,36 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Uzun</t>
+          <t>Kısa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.380000000000001</v>
+        <v>0.3706</v>
       </c>
       <c r="G3" t="n">
-        <v>9.107857142857144</v>
+        <v>0.3982285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>9.924285714285713</v>
+        <v>0.3429714285714285</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aktif</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-07-18 01:51:45</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-14 21:49:42</t>
+          <t>2025-07-16 23:15:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,7 +589,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,33 +598,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>9.022142857142859</v>
+        <v>9.427142857142856</v>
       </c>
       <c r="H4" t="n">
-        <v>10.09571428571429</v>
+        <v>10.29285714285714</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aktif</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-07-18 01:20:02</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-14 21:52:05</t>
+          <t>2025-07-17 09:30:35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADA/USDT</t>
+          <t>PENGU/USDT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -626,42 +638,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Uzun</t>
+          <t>Kısa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7316</v>
+        <v>0.031224</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7104607142857143</v>
+        <v>0.03345185714285714</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7738785714285715</v>
+        <v>0.02899614285714286</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aktif</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:41:42</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-14 21:52:07</t>
+          <t>2025-07-17 14:45:34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADA/USDT</t>
+          <t>ENA/USDT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>6h</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -670,38 +686,42 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7316</v>
+        <v>0.3829</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7582571428571429</v>
+        <v>0.4234571428571429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6782857142857144</v>
+        <v>0.3423428571428572</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aktif</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-07-19 16:39:49</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-14 21:52:14</t>
+          <t>2025-07-17 17:28:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ADA/USDT</t>
+          <t>TRUMP/USDT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>6h</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,190 +730,3618 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7315</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6946857142857144</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8051285714285714</v>
+        <v>10.67</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aktif</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-07-18 06:41:48</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-14 22:32:17</t>
+          <t>2025-07-17 17:28:17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WIF/USDT</t>
+          <t>TRUMP/USDT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Uzun</t>
+          <t>Kısa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.013</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0128987</v>
+        <v>10.37428571428571</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0131013</v>
+        <v>9.345714285714285</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TP Oldu</t>
+          <t>SL Oldu</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-07-14 22:36:39</t>
+          <t>2025-07-18 03:21:25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-14 22:35:31</t>
+          <t>2025-07-17 17:29:49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BNB/USDT</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>6h</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kısa</t>
+          <t>Uzun</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>691.0700000000001</v>
+        <v>118706.39</v>
       </c>
       <c r="G9" t="n">
-        <v>691.1391070000001</v>
+        <v>115055.84</v>
       </c>
       <c r="H9" t="n">
-        <v>691.000893</v>
+        <v>122356.94</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aktif</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:53:32</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-14 22:35:33</t>
+          <t>2025-07-17 17:29:58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kısa</t>
+          <t>Uzun</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.19855</v>
+        <v>118706.39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.198569855</v>
+        <v>116636.3471428572</v>
       </c>
       <c r="H10" t="n">
-        <v>0.198530145</v>
+        <v>120776.4328571428</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SL Oldu</t>
+          <t>TP Oldu</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-07-14 22:36:40</t>
+          <t>2025-07-17 21:23:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-07-14 22:35:36</t>
+          <t>2025-07-17 19:15:34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>119799.41</v>
+      </c>
+      <c r="G11" t="n">
+        <v>122824.8871428571</v>
+      </c>
+      <c r="H11" t="n">
+        <v>116773.9328571429</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-07-21 00:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>432</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-17 19:15:34</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>119799.41</v>
+      </c>
+      <c r="G12" t="n">
+        <v>122824.8871428571</v>
+      </c>
+      <c r="H12" t="n">
+        <v>116773.9328571429</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-07-21 00:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>433</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-17 23:15:34</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>WIF/USDT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9572857142857143</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.190714285714286</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-07-20 14:27:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>434</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:30:34</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>118717.86</v>
+      </c>
+      <c r="G14" t="n">
+        <v>121132.4742857143</v>
+      </c>
+      <c r="H14" t="n">
+        <v>116303.2457142857</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-07-25 03:06:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>435</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:45:35</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>XLM/USDT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4755</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4273428571428571</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5236571428571428</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-07-23 17:11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>436</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-18 19:15:34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BONK/USDT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.318e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.809428571428571e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.826571428571428e-05</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-07-30 00:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>437</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-18 19:30:24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UNI/USDT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.597285714285714</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.74271428571429</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-07-20 15:35:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>438</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-18 23:15:34</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BONK/USDT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3.241e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.730142857142857e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.751857142857144e-05</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-07-23 02:10:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>439</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-19 09:30:38</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DOGE/USDT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.25251</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2782714285714286</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2267485714285714</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-07-21 14:20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>440</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-19 14:45:34</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>HBAR/USDT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.26354</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2343228571428571</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2927571428571428</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-07-24 06:43:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>441</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-19 19:15:35</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>EPIC/USDT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.235285714285715</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.380714285714285</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-07-20 13:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>442</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-07-19 23:15:37</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LINK/USDT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17.60857142857143</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18.99142857142857</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-07-20 08:49:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>443</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-20 09:30:34</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FLOKI/USDT</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00013928</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0001333028571428571</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0001452571428571429</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-07-20 20:19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>444</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-20 14:45:35</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AVAX/USDT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="G24" t="n">
+        <v>26.12428571428571</v>
+      </c>
+      <c r="H24" t="n">
+        <v>24.17571428571429</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-07-21 11:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>445</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-20 19:15:36</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ETH/USDT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3760.74</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3915.751428571428</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3605.728571428571</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>446</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-20 23:15:35</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PENGU/USDT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.031126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03256957142857143</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02968242857142857</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-07-21 04:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>447</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-21 09:30:34</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LTC/USDT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>119.24</v>
+      </c>
+      <c r="G27" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>110.68</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-07-23 20:37:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>448</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-21 14:45:34</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PNUT/USDT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2964142857142857</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3569857142857143</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-07-23 16:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>449</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-21 19:15:34</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>UNI/USDT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>10.849</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11.67557142857143</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10.02242857142857</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:46:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>450</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-21 23:15:34</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LTC/USDT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>115.78</v>
+      </c>
+      <c r="G30" t="n">
+        <v>120.4714285714286</v>
+      </c>
+      <c r="H30" t="n">
+        <v>111.0885714285714</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-07-23 01:33:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>451</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-22 09:30:36</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>UNI/USDT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>10.241</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.428857142857142</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11.05314285714286</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-07-28 02:37:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>452</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-22 14:45:34</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PEPE/USDT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.376e-05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.450285714285714e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.301714285714286e-05</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>453</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-22 19:15:36</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DOGE/USDT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.26687</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2417571428571429</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2919828571428571</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-07-23 17:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>454</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-22 23:15:34</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PENGU/USDT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.042013</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.04751285714285715</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03651314285714286</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-07-25 01:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>455</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-07-23 09:30:34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SOL/USDT</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>197.94</v>
+      </c>
+      <c r="G35" t="n">
+        <v>210.7957142857143</v>
+      </c>
+      <c r="H35" t="n">
+        <v>185.0842857142857</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-07-23 21:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>456</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-07-23 14:45:35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>117914</v>
+      </c>
+      <c r="G36" t="n">
+        <v>120835.0785714286</v>
+      </c>
+      <c r="H36" t="n">
+        <v>114992.9214285714</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>457</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-07-23 19:15:36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>WLD/USDT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.198</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.043857142857143</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.352142857142857</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-07-30 11:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>458</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-07-23 23:15:49</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LTC/USDT</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>121.5914285714286</v>
+      </c>
+      <c r="H38" t="n">
+        <v>103.4085714285714</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-08-01 08:06:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>459</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-24 09:30:34</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>LA/USDT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3314714285714286</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4413285714285714</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>460</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-24 14:45:34</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PEPE/USDT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.283e-05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.373142857142857e-05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.192857142857143e-05</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-07-25 03:00:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>461</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-24 19:15:34</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SAHARA/USDT</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.10223</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1404971428571428</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.06396285714285715</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>aktif</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>462</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-07-24 23:15:34</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CRV/USDT</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9639</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9081714285714286</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.019628571428571</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-07-25 06:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>463</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-25 17:22:45</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ENA/USDT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5515</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4685285714285714</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6344714285714286</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-07-27 01:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>464</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-25 17:23:08</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>HBAR/USDT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.25003</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.27479</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.22527</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-07-26 12:52:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>465</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-07-25 17:23:17</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BONK/USDT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3.337e-05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.135714285714286e-05</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.538285714285714e-05</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-07-25 21:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>466</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-07-25 19:15:34</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MDT/USDT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.03844</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05055142857142857</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02632857142857143</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>467</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-07-25 23:15:50</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MDT/USDT</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.03417</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01647714285714286</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.05186285714285714</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>aktif</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>468</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-07-26 09:30:34</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>USD1/USDT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.0025</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9986285714285712</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.006371428571429</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-07-29 06:59:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>469</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-07-26 14:45:34</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SOL/USDT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>187.17</v>
+      </c>
+      <c r="G49" t="n">
+        <v>184.5571428571428</v>
+      </c>
+      <c r="H49" t="n">
+        <v>189.7828571428571</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-07-26 23:08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>470</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-07-26 19:15:34</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ERA/USDT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.2828</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.3398</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.2258</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-07-27 05:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>471</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:01:41</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ENA/USDT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5346714285714286</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.6260714285714286</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-07-26 23:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>473</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-07-26 23:15:38</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SOL/USDT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>184.53</v>
+      </c>
+      <c r="G52" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>178.1025</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-07-28 03:46:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>474</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-07-27 09:30:40</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ERA/USDT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.3932</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.474328571428571</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.332353571428571</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-07-28 01:55:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>475</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-07-27 14:45:34</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ETH/USDT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3805.57</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3935.328571428572</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3708.251071428572</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-07-28 05:52:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>476</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-07-27 19:15:34</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PEPE/USDT</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.27e-05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.209142857142857e-05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.315642857142857e-05</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-07-28 18:05:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>477</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-07-27 23:15:34</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BCH/USDT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>592</v>
+      </c>
+      <c r="G56" t="n">
+        <v>627.9142857142857</v>
+      </c>
+      <c r="H56" t="n">
+        <v>565.0642857142857</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:38:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>472</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:02:13</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ETH/USDT</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>3741.91</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3884.06</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3635.2975</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-07-28 00:30:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>478</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:30:34</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ENA/USDT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.6761</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6230428571428571</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.7158928571428572</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-07-29 00:34:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>479</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-07-28 14:45:34</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BNB/USDT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>838.61</v>
+      </c>
+      <c r="G59" t="n">
+        <v>869.6857142857143</v>
+      </c>
+      <c r="H59" t="n">
+        <v>815.3032142857143</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-07-29 13:50:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>480</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-07-28 19:15:35</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AVAX/USDT</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="G60" t="n">
+        <v>24.38857142857143</v>
+      </c>
+      <c r="H60" t="n">
+        <v>26.84107142857143</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>481</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-07-28 23:15:35</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>XRP/USDT</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3.1363</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.013914285714285</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.228089285714286</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-07-30 19:07:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>482</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:30:36</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>XRP/USDT</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>3.1633</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.021871428571429</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.269371428571429</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-07-30 19:07:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>483</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:45:34</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SOL/USDT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>181.63</v>
+      </c>
+      <c r="G63" t="n">
+        <v>175.78</v>
+      </c>
+      <c r="H63" t="n">
+        <v>186.0175</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-07-30 19:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>484</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-07-29 19:15:34</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>BONK/USDT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3.017e-05</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.161e-05</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.909e-05</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-07-29 20:11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>485</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-07-29 19:56:32</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PEPE/USDT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.142e-05</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.063571428571429e-05</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.181214285714286e-05</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:48:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>486</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-07-29 19:56:47</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ETH/USDT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>3769.34</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3849.304285714286</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3729.357857142857</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-07-30 19:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>487</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-07-29 23:15:34</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CFX/USDT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2069</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1813714285714286</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.2196642857142857</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:06:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>488</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:30:35</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>OMNI/USDT</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.222857142857142</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.963571428571429</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>aktif</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>489</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-07-30 14:45:35</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SPK/USDT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.102832</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.08990657142857143</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.1092947142857143</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-07-30 15:46:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>490</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-07-30 19:15:35</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BONK/USDT</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2.725e-05</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.514428571428571e-05</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.830285714285714e-05</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-07-30 21:02:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>491</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-07-30 23:15:34</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BNB/USDT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>790.33</v>
+      </c>
+      <c r="G71" t="n">
+        <v>811.6157142857144</v>
+      </c>
+      <c r="H71" t="n">
+        <v>779.6871428571429</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:57:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>492</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:30:34</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BONK/USDT</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2.956e-05</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.375571428571429e-05</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.746214285714286e-05</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-07-31 18:07:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>493</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-07-31 14:45:35</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AVAX/USDT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="G73" t="n">
+        <v>21.06714285714285</v>
+      </c>
+      <c r="H73" t="n">
+        <v>23.83142857142857</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-08-02 16:36:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>494</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-07-31 19:15:36</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AVAX/USDT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="G74" t="n">
+        <v>21.08857142857143</v>
+      </c>
+      <c r="H74" t="n">
+        <v>23.71571428571429</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-08-02 16:36:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>495</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-07-31 23:15:34</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>S/USDT</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3138</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.2988</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3213</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-08-01 05:48:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>406</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:00:10</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BONK/USDT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3.75e-05</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.078285714285714e-05</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.093428571428571e-05</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>408</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:03:51</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ETH/USDT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>3325.11</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3477.787142857143</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3172.432857142857</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>409</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:05:35</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>SEI/USDT</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.3649</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.3315142857142857</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.3982857142857143</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>412</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:13:57</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BNB/USDT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>709.09</v>
+      </c>
+      <c r="G79" t="n">
+        <v>710.0768571428572</v>
+      </c>
+      <c r="H79" t="n">
+        <v>708.1031428571429</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>414</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:15:03</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LINK/USDT</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="G80" t="n">
+        <v>16.95785714285714</v>
+      </c>
+      <c r="H80" t="n">
+        <v>16.86214285714286</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>415</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:16:41</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DOGE/USDT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.20926</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.2099835</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.2085365</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>417</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:19:58</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>HBAR/USDT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.23956</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.23158</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.24754</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>418</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:20:52</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ADA/USDT</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7652</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.7839</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.7464999999999999</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:02:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>407</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:00:37</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ADA/USDT</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7642</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.7976821428571429</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.6972357142857143</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>416</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:19:24</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HBAR/USDT</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.23973</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.25614</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.22332</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-08-12 17:05:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>420</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:22:09</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>HBAR/USDT</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.24061</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.2170785714285714</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.2641414285714285</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>TP Oldu</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-08-13 08:05:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>419</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:20:53</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>2h</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Uzun</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3319</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.33186681</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.33193319</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Kısa</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>119158.56</v>
+      </c>
+      <c r="G87" t="n">
+        <v>121126.7128571428</v>
+      </c>
+      <c r="H87" t="n">
+        <v>117190.4071428571</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-08-13 13:52:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>410</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:10:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>119458.81</v>
+      </c>
+      <c r="G88" t="n">
+        <v>115674.2757142857</v>
+      </c>
+      <c r="H88" t="n">
+        <v>123243.3442857143</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>TP Oldu</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2025-07-14 22:36:40</t>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-08-13 22:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>411</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-07-16 21:10:48</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>XLM/USDT</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.4695</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.4089428571428571</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.5300571428571428</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>SL Oldu</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-08-18 03:41:16</t>
         </is>
       </c>
     </row>
